--- a/excel/Examples_Rus/Pic09_09.xlsx
+++ b/excel/Examples_Rus/Pic09_09.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\excel\Examples_Rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63016FB4-0A1C-4AC8-8E56-87C23C3494E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,24 +129,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="B2:D14">
-  <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:D14">
+  <autoFilter ref="B2:D14"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Месяц" totalsRowLabel="Итог"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="План"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Факт" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Месяц" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="План"/>
+    <tableColumn id="3" name="Факт" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B63B95C-11AB-4633-B4D8-CF7AD5615585}" name="Таблица13" displayName="Таблица13" ref="B2:D15" totalsRowCount="1">
-  <autoFilter ref="B2:D14" xr:uid="{D01F92DC-B6FD-4DC4-BE52-19B341CD3567}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="B2:D15" totalsRowCount="1">
+  <autoFilter ref="B2:D14"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9FD39990-EF1C-4BDF-9650-4EE3768CB26B}" name="Месяц" totalsRowLabel="Итог"/>
-    <tableColumn id="2" xr3:uid="{13AF8214-92D7-4C21-A011-EAC24D08A20A}" name="План" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{06C4650D-87D5-4047-9271-23AC2F9BE5DE}" name="Факт" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Месяц" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="План" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="Факт" totalsRowFunction="average"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -415,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D36D9-A24C-45D3-9208-0062D271DAF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +739,8 @@
         <v>68000</v>
       </c>
       <c r="D15">
-        <f>SUBTOTAL(109,Таблица13[Факт])</f>
-        <v>68522</v>
+        <f>SUBTOTAL(101,Таблица13[Факт])</f>
+        <v>5710.166666666667</v>
       </c>
     </row>
   </sheetData>
